--- a/VS/With Trail 2 Years/EURGBP.xlsx
+++ b/VS/With Trail 2 Years/EURGBP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\With TRG Trail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\With Trail 2 Years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D6FCC-1D96-4452-8207-B57930C854F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77221A58-86DE-415B-8B8D-EE0705A81BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="19">
   <si>
     <t>ENTRY DATE</t>
   </si>
@@ -72,15 +72,21 @@
   <si>
     <t>TRG</t>
   </si>
+  <si>
+    <t>GREEN CANDLE LOW</t>
+  </si>
+  <si>
+    <t>AFTER 10 NO EXIT CONDITION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +99,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,12 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="I250" sqref="I250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +479,7 @@
     <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -9888,7 +9913,7 @@
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="5">
         <v>45146.729166666657</v>
       </c>
       <c r="C231">
@@ -9970,7 +9995,7 @@
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="3">
         <v>45147.666666666657</v>
       </c>
       <c r="C233">
@@ -10090,7 +10115,7 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="3">
         <v>45160.739583333343</v>
       </c>
       <c r="C236">
@@ -10291,7 +10316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10332,7 +10357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10373,7 +10398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10414,7 +10439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10455,89 +10480,95 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2">
-        <v>45181.479166666657</v>
-      </c>
-      <c r="C245">
+      <c r="B245" s="3">
+        <v>45181.479166666664</v>
+      </c>
+      <c r="C245" s="4">
         <v>0.85870999999999997</v>
       </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245" t="s">
-        <v>14</v>
-      </c>
-      <c r="F245">
+      <c r="D245" s="4">
+        <v>2</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="4">
         <v>0.8580217</v>
       </c>
-      <c r="G245" s="2">
+      <c r="G245" s="3">
         <v>45181.5</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="4">
         <v>-6.8829999999997504E-4</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="4">
         <v>-167.9672255999939</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="4">
         <v>0.8580217</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="4">
         <v>0.86008659999999992</v>
       </c>
-      <c r="L245">
+      <c r="L245" s="4">
         <v>0.85939829999999995</v>
       </c>
-      <c r="M245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M245" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="3">
         <v>45181.53125</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="4">
         <v>0.85934999999999995</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="4">
         <v>1.8</v>
       </c>
-      <c r="E246" t="s">
-        <v>14</v>
-      </c>
-      <c r="F246">
+      <c r="E246" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="4">
         <v>0.86105239999999983</v>
       </c>
-      <c r="G246" s="2">
+      <c r="G246" s="3">
         <v>45182.03125</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="4">
         <v>1.702399999999882E-3</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="4">
         <v>373.89606911997402</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="4">
         <v>0.85849880000000001</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="4">
         <v>0.86105239999999983</v>
       </c>
-      <c r="L246">
+      <c r="L246" s="4">
         <v>0.86020119999999989</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10578,7 +10609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10619,7 +10650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10660,7 +10691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I250">
         <f>SUM(I2:I249)</f>
         <v>5635.3273385860848</v>
@@ -10668,5 +10699,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>